--- a/FindUnusedObjects/UnusedUser.xlsx
+++ b/FindUnusedObjects/UnusedUser.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Blog\Powershell\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Blog\Powershell\FindUnusedObjects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8214B4E2-5DCC-4A66-B698-C49B801E0576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC2B2C53-B45C-43D4-AA0F-779360C23837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20400" windowHeight="12840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UserList" sheetId="1" r:id="rId1"/>
